--- a/web_scraper/processed_judgements_final/crl.a._36_2023.xlsx
+++ b/web_scraper/processed_judgements_final/crl.a._36_2023.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * On March 27, 2016, Nisar Ahmed, the paternal cousin of Abdul Qadeer, was murdered with firing by Khial Muhammad at 6:20 pm in a bazaar in Pishin. * The FIR was lodged by Abdul Qadeer on March 28, 2016, at 9:00 am, approximately 15 hours after the incident. * Two eyewitnesses, Zahoor Ahmad and Shahenshah, claimed to have seen the incident and identified Khial Muhammad as the perpetrator. * The prosecution produced 11 witnesses, including the eyewitnesses, to prove its case. * Khial Muhammad was arrested and a TT Pistol with 28 live cartridges and six crime empty shells were recovered from his possession.  </t>
+          <t xml:space="preserve"> On March 27, 2016, Nisar Ahmed, the paternal cousin of complainant Abdul Qadeer, was murdered with firing by the appellant, Khial Muhammad, in a main bazaar in Pishin. The complainant received a call about the murder and went to the hospital where he saw the dead body of Nisar Ahmed. The motive behind the murder was that Nisar Ahmed had taken the appellant's sister to his house, which annoyed the appellant. The case was registered against the appellant, and he was convicted and sentenced to death by the trial court. The appellant appealed to the High Court, which confirmed the sentence. The appellant further appealed to the Supreme Court, which set aside the conviction and acquitted him.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Zahoor Ahmad (PW-2) and Shahenshah (PW-7) were the two eyewitnesses who claimed to have seen the incident. * They stated that they stopped a car and took the deceased/injured to the civil hospital Pishin and when examined by the doctor, he was found dead.  </t>
+          <t xml:space="preserve"> * Zahoor Ahmad (PW-2) and Shahenshah (PW-7), who claimed to be eyewitnesses to the murder, testified that they were present at the scene of the crime and saw the appellant fire at Nisar Ahmed. However, their names were not mentioned in the FIR, and their statements were recorded by the police with a delay of 16 hours. * Abdul Qadeer, the complainant, testified that he received a call about the murder and went to the hospital where he saw the dead body of Nisar Ahmed.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The Supreme Court allowed the appeal and acquitted Khial Muhammad of the charge of murder. * The court held that the prosecution failed to prove its case beyond reasonable doubt due to several irregularities and doubts. * The court noted that the FIR was lodged with a delay, the eyewitnesses' statements were recorded with a delay, and their names were not mentioned in the FIR. * The court also noted that the recovery of the crime weapon was doubtful and the FSL report was not worthy of reliance. * The court held that the prosecution failed to prove its case and that Khial Muhammad was entitled to the benefit of the doubt. * The court acquitted Khial Muhammad and set him at liberty forthwith. </t>
+          <t xml:space="preserve"> The Supreme Court allowed the appeal and acquitted the appellant, Khial Muhammad, of the charge of murder. The court found that the prosecution failed to prove its case beyond reasonable doubt due to several irregularities and discrepancies in the evidence. The court noted that the FIR was lodged with a delay of more than 15 hours, and the statements of the eyewitnesses were recorded with a delay of 16 hours. The court also found that the recovery of the crime weapon and the FSL report were doubtful, and that the post-mortem was conducted with an unexplained delay. The court held that the benefit of the doubt should go to the accused, and acquitted the appellant. </t>
         </is>
       </c>
     </row>
